--- a/output/excel/edges.xlsx
+++ b/output/excel/edges.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191">
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193">
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217">
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229">
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237">
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="251">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="264">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="270">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="276">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="278">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="285">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="290">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="293">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="294">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="304">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="306">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="307">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="308">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="310">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="314">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="317">
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="318">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="319">
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="321">
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="322">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="323">
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="324">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="326">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="337">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="339">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="340">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="341">
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="343">
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="348">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="349">
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="351">
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="352">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="355">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="356">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="358">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="359">
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="361">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="362">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="367">
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="368">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="374">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="381">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="382">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="383">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="385">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="386">
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="388">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="392">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="395">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="397">
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="399">
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="403">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -6507,7 +6507,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -6522,7 +6522,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="407">
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="408">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="410">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -6627,7 +6627,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="414">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -6657,7 +6657,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="418">
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="419">
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421">
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428">
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="432">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="433">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="437">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="439">
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="440">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="442">
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="445">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="447">
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="448">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="449">
@@ -7167,7 +7167,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="450">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="452">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="453">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="459">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="462">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="463">
@@ -7377,7 +7377,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="464">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="467">
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="473">
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="474">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="477">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="482">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="484">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -7737,7 +7737,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="488">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="489">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="492">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="496">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="497">
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="498">
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="499">
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="503">
@@ -7977,7 +7977,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="504">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="508">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -8097,7 +8097,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="513">
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -8217,7 +8217,7 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="520">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="521">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="526">
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="530">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="535">
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="536">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="537">
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="538">
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="540">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="541">
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -8577,7 +8577,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="547">
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="548">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -8667,7 +8667,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="550">
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="555">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="556">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -8787,7 +8787,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="558">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -8817,7 +8817,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="560">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="561">
@@ -8847,7 +8847,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562">
@@ -8877,7 +8877,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="572">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="573">
